--- a/User_Data_Output1.xlsx
+++ b/User_Data_Output1.xlsx
@@ -703,6 +703,9 @@
       <c r="D3" t="s">
         <v>92</v>
       </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
@@ -717,6 +720,9 @@
       <c r="D4" t="s">
         <v>92</v>
       </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
@@ -731,6 +737,9 @@
       <c r="D5" t="s">
         <v>92</v>
       </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
@@ -745,6 +754,9 @@
       <c r="D6" t="s">
         <v>92</v>
       </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
@@ -759,6 +771,9 @@
       <c r="D7" t="s">
         <v>92</v>
       </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
@@ -773,6 +788,9 @@
       <c r="D8" t="s">
         <v>92</v>
       </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
@@ -787,6 +805,9 @@
       <c r="D9" t="s">
         <v>92</v>
       </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
@@ -801,6 +822,9 @@
       <c r="D10" t="s">
         <v>92</v>
       </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
@@ -815,6 +839,9 @@
       <c r="D11" t="s">
         <v>92</v>
       </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
@@ -829,6 +856,9 @@
       <c r="D12" t="s">
         <v>92</v>
       </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
@@ -843,6 +873,9 @@
       <c r="D13" t="s">
         <v>92</v>
       </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
@@ -857,6 +890,9 @@
       <c r="D14" t="s">
         <v>92</v>
       </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
@@ -871,6 +907,9 @@
       <c r="D15" t="s">
         <v>92</v>
       </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
@@ -885,8 +924,11 @@
       <c r="D16" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -899,8 +941,11 @@
       <c r="D17" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -913,8 +958,11 @@
       <c r="D18" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -927,8 +975,11 @@
       <c r="D19" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -941,8 +992,11 @@
       <c r="D20" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -955,8 +1009,11 @@
       <c r="D21" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -969,8 +1026,11 @@
       <c r="D22" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -983,8 +1043,11 @@
       <c r="D23" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -997,8 +1060,11 @@
       <c r="D24" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1011,8 +1077,11 @@
       <c r="D25" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1025,8 +1094,11 @@
       <c r="D26" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1039,8 +1111,11 @@
       <c r="D27" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1053,8 +1128,11 @@
       <c r="D28" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1067,8 +1145,11 @@
       <c r="D29" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1081,8 +1162,11 @@
       <c r="D30" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1094,6 +1178,9 @@
       </c>
       <c r="D31" t="s">
         <v>92</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
